--- a/LoveDocs/excel/story.xlsx
+++ b/LoveDocs/excel/story.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -812,6 +812,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J37">
+      <formula1>"旁白,对话"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/LoveDocs/excel/story.xlsx
+++ b/LoveDocs/excel/story.xlsx
@@ -4,94 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="story" sheetId="1" r:id="rId1"/>
     <sheet name="dialogues@story" sheetId="2" r:id="rId2"/>
+    <sheet name="option@story" sheetId="3" r:id="rId3"/>
+    <sheet name="condition@story" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">story!$C$1:$C$29</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>dialogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话说很久很久以前。。。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一个小村庄。。。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在一户人家里。。。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一家人围坐桌旁吃着晚餐。。。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爸爸，我想吃鸡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃泥麻痹，我还没的吃呢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要，不要，我就想吃。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>emoticon</t>
   </si>
   <si>
-    <t>好好好，爸爸给你去找鸡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村口。。。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一个鸡站在那里。。。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小莲！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哟～爸爸来玩吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天没空，我儿子找你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哟，大公子要吃啊，那我上家去啦～</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走走走，我饭还没吃完呢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对话id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,23 +37,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示立绘id(没有则不显示)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步的对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景播放动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很久很久以前。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个村庄。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，托比。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你打算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要干嘛去啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶诶诶，想打架么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气需要达到40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来啊，谁怕谁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左勾拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有勾拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方轻易的躲开，一拳打在你的脸上，你死了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你打在了对方的脸上，对方一个趔趄。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气需要达到60才能打败对方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方又是一拳打过来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哟嗬，小伙子挺厉害嘛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统检测【勇气】大于60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你轻巧的躲开了，回击一拳打在对方的另一侧脸上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统检测【勇气】未达到60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统检测【勇气】大于40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你打倒了一个村民，被村民驱逐，从此成了一个浪人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被打死掉了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜拜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打算去玩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你来到城里。你要去哪里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你来到郊外，遇到了狗熊，你死了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你来到怡红院，从此花天酒地，幸福一生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话类型 101 人物对话 102 旁白对话 103 章节对话  201 选项事件 202 按钮事件 203 条件事件 301 死亡 302 结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打招呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不理他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_outskirts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_brothel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断类型 (0 小于 1 小于等于 2 等于 3 大于等于 4 大于)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condoper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类型(1 自身属性 2 友好度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件id (魅力 0 智力 1 勇气 2 医术 3 仇恨 4 冷静 5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,40 +642,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="124.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>102</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>201</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>203</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>101</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>201</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>301</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>101</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>101</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>101</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>203</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>101</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>101</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>302</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>101</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>301</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>101</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>101</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>202</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>301</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>302</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C29"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -507,210 +1160,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
+      <c r="C11">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -718,16 +1393,16 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -736,88 +1411,387 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>24</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I37">
       <formula1>"旁白,对话"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>